--- a/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>Serie</t>
   </si>
@@ -836,6 +836,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3931,6 +3934,17 @@
         <v>108.9</v>
       </c>
     </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272">
+        <v>7134.8</v>
+      </c>
+      <c r="C272">
+        <v>115.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Serie</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3945,6 +3948,14 @@
         <v>115.04</v>
       </c>
     </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273">
+        <v>7044.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -3945,15 +3945,18 @@
         <v>7134.8</v>
       </c>
       <c r="C272">
-        <v>115.04</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273">
         <v>7044.6</v>
+      </c>
+      <c r="C273">
+        <v>113.98</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Serie</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3959,6 +3962,14 @@
         <v>113.98</v>
       </c>
     </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274">
+        <v>6527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -3969,6 +3969,9 @@
       <c r="B274">
         <v>6527</v>
       </c>
+      <c r="C274">
+        <v>105.66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
